--- a/Doc/Excel/Map.xlsx
+++ b/Doc/Excel/Map.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>ID</t>
   </si>
@@ -109,7 +109,7 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>ParentMap</t>
+    <t>ChildMap</t>
   </si>
   <si>
     <t>int32</t>
@@ -136,7 +136,22 @@
     <t>描述</t>
   </si>
   <si>
-    <t>父地图</t>
+    <t>子地图</t>
+  </si>
+  <si>
+    <t>大地图</t>
+  </si>
+  <si>
+    <t>洛阳|长安</t>
+  </si>
+  <si>
+    <t>洛阳</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>长安</t>
   </si>
   <si>
     <t>TableName: "Map" Package: "table"</t>
@@ -190,9 +205,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -221,6 +236,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -229,43 +303,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,62 +349,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -350,8 +356,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,7 +366,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,187 +395,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,11 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,16 +634,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -632,17 +662,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -672,17 +691,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,10 +709,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,16 +721,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,115 +739,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,7 +1189,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1254,6 +1269,60 @@
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>10030001</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>10030002</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>10030003</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -1288,53 +1357,53 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Excel/Map.xlsx
+++ b/Doc/Excel/Map.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>ID</t>
   </si>
@@ -106,6 +106,9 @@
     <t>ShowName</t>
   </si>
   <si>
+    <t>BackPic</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>显示名称</t>
   </si>
   <si>
+    <t>背景路径</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -140,6 +146,9 @@
   </si>
   <si>
     <t>大地图</t>
+  </si>
+  <si>
+    <t>Image/Map/santangyizhan</t>
   </si>
   <si>
     <t>洛阳|长安</t>
@@ -204,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -236,9 +245,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,21 +330,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,43 +352,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,24 +365,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,25 +381,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,19 +404,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,25 +482,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +518,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,43 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,73 +578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,17 +613,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +653,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,24 +696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -690,17 +710,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -709,10 +718,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,133 +730,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,23 +1195,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E6" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="20.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="25.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1221,108 +1231,126 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>10030001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>10030002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>10030003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -1357,53 +1385,53 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
